--- a/HASSAN MOHAMMED.xlsx
+++ b/HASSAN MOHAMMED.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="690" windowWidth="17715" windowHeight="10695" firstSheet="8" activeTab="11"/>
+    <workbookView minimized="1" xWindow="960" yWindow="690" windowWidth="17715" windowHeight="10695" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DECEMBER 20" sheetId="1" r:id="rId1"/>
@@ -21,12 +26,12 @@
     <sheet name="NOVEMBER 21" sheetId="12" r:id="rId12"/>
     <sheet name="DECEMBER 21" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="156">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -480,11 +485,26 @@
   <si>
     <t>DEC</t>
   </si>
+  <si>
+    <t>PHOSTINE WANDERA</t>
+  </si>
+  <si>
+    <t>JIM NGIGE</t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>SILVIA MUIGI</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -838,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,7 +893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1885,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="U39" sqref="U39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,16 +3614,19 @@
       <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="S44" s="44"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <f>2*6500</f>
-        <v>13000</v>
-      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="R46" s="44"/>
@@ -3618,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W45"/>
+  <dimension ref="A2:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4642,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="14">
-        <f>'SEPT 21'!I23:I40</f>
+        <f>SUM(D6:D22)</f>
         <v>24000</v>
       </c>
       <c r="E23" s="15">
@@ -5271,10 +5294,15 @@
         <v>101370</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <f>2*6500</f>
-        <v>13000</v>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5286,8 +5314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5582,12 +5610,11 @@
         <v>5350</v>
       </c>
       <c r="U8" s="16">
-        <f>500</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="V8" s="17">
         <f t="shared" si="2"/>
-        <v>4850</v>
+        <v>5000</v>
       </c>
       <c r="W8" s="15"/>
     </row>
@@ -5832,10 +5859,12 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <v>6000</v>
+      </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15"/>
       <c r="N13" s="51"/>
@@ -6120,11 +6149,11 @@
         <v>19000</v>
       </c>
       <c r="U18" s="16">
-        <v>19000</v>
+        <v>19150</v>
       </c>
       <c r="V18" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="W18" s="15"/>
     </row>
@@ -6331,11 +6360,11 @@
       </c>
       <c r="H23" s="16">
         <f t="shared" si="4"/>
-        <v>100000</v>
+        <v>106000</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="4"/>
-        <v>31000</v>
+        <v>25000</v>
       </c>
       <c r="J23" s="15">
         <f t="shared" si="4"/>
@@ -6508,10 +6537,7 @@
       <c r="T28" s="38"/>
       <c r="U28" s="26"/>
       <c r="V28" s="26"/>
-      <c r="W28" s="43">
-        <f>O25-P29</f>
-        <v>55800</v>
-      </c>
+      <c r="W28" s="43"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
@@ -6529,7 +6555,7 @@
       </c>
       <c r="G29" s="38">
         <f>H23</f>
-        <v>100000</v>
+        <v>106000</v>
       </c>
       <c r="H29" s="26"/>
       <c r="I29" s="26"/>
@@ -6557,10 +6583,7 @@
         <v>4200</v>
       </c>
       <c r="V29" s="26"/>
-      <c r="W29" s="34">
-        <f>15000</f>
-        <v>15000</v>
-      </c>
+      <c r="W29" s="34"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
@@ -6598,10 +6621,7 @@
       <c r="T30" s="40"/>
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
-      <c r="W30" s="34">
-        <f>W28-W29</f>
-        <v>40800</v>
-      </c>
+      <c r="W30" s="34"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
@@ -6692,10 +6712,7 @@
       <c r="T33" s="39"/>
       <c r="U33" s="26"/>
       <c r="V33" s="26"/>
-      <c r="W33" s="34">
-        <f>O25-P29</f>
-        <v>55800</v>
-      </c>
+      <c r="W33" s="34"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
@@ -6719,7 +6736,7 @@
       </c>
       <c r="O34" s="39"/>
       <c r="P34" s="26">
-        <v>5000</v>
+        <v>1850</v>
       </c>
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
@@ -6765,10 +6782,7 @@
         <v>40800</v>
       </c>
       <c r="V35" s="26"/>
-      <c r="W35" s="34">
-        <f>W37+V8</f>
-        <v>15000</v>
-      </c>
+      <c r="W35" s="34"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="40" t="s">
@@ -6817,12 +6831,12 @@
       </c>
       <c r="P37" s="45">
         <f>SUM(P29:P36)</f>
-        <v>60000</v>
+        <v>56850</v>
       </c>
       <c r="Q37" s="45"/>
       <c r="R37" s="45">
         <f>O37-P37</f>
-        <v>0</v>
+        <v>3150</v>
       </c>
       <c r="S37" s="37" t="s">
         <v>10</v>
@@ -6839,10 +6853,7 @@
         <f>T37-U37</f>
         <v>3150</v>
       </c>
-      <c r="W37" s="34">
-        <f>V37+7000</f>
-        <v>10150</v>
-      </c>
+      <c r="W37" s="34"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
@@ -6933,7 +6944,7 @@
       </c>
       <c r="G41" s="45">
         <f>G29+G30+G32-H33</f>
-        <v>4936.9999999999991</v>
+        <v>10937</v>
       </c>
       <c r="H41" s="45">
         <f>SUM(H35:H40)</f>
@@ -6941,17 +6952,11 @@
       </c>
       <c r="I41" s="45">
         <f>G41-H41</f>
-        <v>-87363</v>
+        <v>-81363</v>
       </c>
       <c r="J41" s="43"/>
-      <c r="K41" s="44">
-        <f>B29-C33</f>
-        <v>102300</v>
-      </c>
-      <c r="Q41" s="28">
-        <f>P35+P34+P33</f>
-        <v>55800</v>
-      </c>
+      <c r="K41" s="44"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="46" t="s">
@@ -6970,31 +6975,24 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="43"/>
-      <c r="K42">
-        <v>10000</v>
-      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K43" s="44">
-        <f>K41-K42</f>
-        <v>92300</v>
-      </c>
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="K43" s="44"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <f>2*6500</f>
-        <v>13000</v>
-      </c>
-      <c r="R45" s="44">
-        <f>R37+92300</f>
-        <v>92300</v>
-      </c>
+      <c r="R45" s="44"/>
     </row>
     <row r="50" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K50" s="44">
-        <f>K43+R37</f>
-        <v>92300</v>
-      </c>
+      <c r="K50" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7003,10 +7001,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W45"/>
+  <dimension ref="A2:W57"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7016,7 +7014,7 @@
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
     <col min="18" max="18" width="14.28515625" customWidth="1"/>
     <col min="20" max="20" width="13.140625" customWidth="1"/>
   </cols>
@@ -7166,10 +7164,13 @@
         <f>C6+E6+F6+D6</f>
         <v>9000</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="16">
+        <f>1400+1600</f>
+        <v>3000</v>
+      </c>
       <c r="I6" s="17">
         <f>G6-H6</f>
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="J6" s="15"/>
       <c r="N6" s="12" t="s">
@@ -7185,16 +7186,18 @@
       </c>
       <c r="R6" s="15"/>
       <c r="S6" s="16">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="T6" s="16">
         <f>P6+R6+S6+Q6</f>
-        <v>5000</v>
-      </c>
-      <c r="U6" s="16"/>
+        <v>6000</v>
+      </c>
+      <c r="U6" s="16">
+        <v>6000</v>
+      </c>
       <c r="V6" s="17">
         <f>T6-U6</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15"/>
     </row>
@@ -7218,10 +7221,12 @@
         <f>C7+E7+F7+D7</f>
         <v>6000</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16">
+        <v>6000</v>
+      </c>
       <c r="I7" s="17">
-        <f t="shared" ref="I7:I22" si="0">G7-H7</f>
-        <v>6000</v>
+        <f t="shared" ref="I7:I24" si="0">G7-H7</f>
+        <v>0</v>
       </c>
       <c r="J7" s="15"/>
       <c r="N7" s="18" t="s">
@@ -7237,16 +7242,18 @@
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="16">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="T7" s="16">
-        <f t="shared" ref="T7:T20" si="1">P7+R7+S7+Q7</f>
-        <v>5000</v>
-      </c>
-      <c r="U7" s="16"/>
+        <f t="shared" ref="T7:T22" si="1">P7+R7+S7+Q7</f>
+        <v>6000</v>
+      </c>
+      <c r="U7" s="16">
+        <v>6000</v>
+      </c>
       <c r="V7" s="17">
-        <f t="shared" ref="V7:V19" si="2">T7-U7</f>
-        <v>5000</v>
+        <f t="shared" ref="V7:V21" si="2">T7-U7</f>
+        <v>0</v>
       </c>
       <c r="W7" s="15"/>
     </row>
@@ -7279,27 +7286,25 @@
       </c>
       <c r="J8" s="15"/>
       <c r="N8" s="26" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O8" s="13">
         <v>3</v>
       </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="14">
-        <f>'NOVEMBER 21'!V8</f>
-        <v>4850</v>
-      </c>
+      <c r="Q8" s="14"/>
       <c r="R8" s="15"/>
-      <c r="S8" s="16"/>
+      <c r="S8" s="16">
+        <v>5000</v>
+      </c>
       <c r="T8" s="16">
         <f t="shared" si="1"/>
-        <v>4850</v>
-      </c>
-      <c r="U8" s="16"/>
-      <c r="V8" s="17">
-        <f t="shared" si="2"/>
-        <v>4850</v>
-      </c>
+        <v>5000</v>
+      </c>
+      <c r="U8" s="16">
+        <v>5000</v>
+      </c>
+      <c r="V8" s="17"/>
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -7319,13 +7324,15 @@
         <v>6000</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" ref="G9:G20" si="3">C9+E9+F9+D9</f>
+        <f t="shared" ref="G9:G22" si="3">C9+E9+F9+D9</f>
         <v>7500</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="16">
+        <v>1500</v>
+      </c>
       <c r="I9" s="17">
         <f>G9-H9</f>
-        <v>7500</v>
+        <v>6000</v>
       </c>
       <c r="J9" s="15"/>
       <c r="N9" s="19" t="s">
@@ -7356,7 +7363,7 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="B10" s="13">
         <v>5</v>
@@ -7374,10 +7381,12 @@
         <f t="shared" si="3"/>
         <v>6500</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16">
+        <v>6500</v>
+      </c>
       <c r="I10" s="17">
         <f>G10-H10</f>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J10" s="15"/>
       <c r="N10" s="19" t="s">
@@ -7388,8 +7397,7 @@
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="14">
-        <f>'NOVEMBER 21'!V10</f>
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="16">
@@ -7397,12 +7405,12 @@
       </c>
       <c r="T10" s="16">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="17">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="W10" s="15"/>
     </row>
@@ -7426,42 +7434,39 @@
         <f t="shared" si="3"/>
         <v>6000</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="16">
+        <v>6000</v>
+      </c>
       <c r="I11" s="17">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15"/>
       <c r="N11" s="50" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="O11" s="13">
         <v>6</v>
       </c>
       <c r="P11" s="14"/>
-      <c r="Q11" s="14">
-        <f>'NOVEMBER 21'!V11</f>
-        <v>6000</v>
-      </c>
+      <c r="Q11" s="14"/>
       <c r="R11" s="15"/>
       <c r="S11" s="16">
         <v>5000</v>
       </c>
       <c r="T11" s="16">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="17">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>5000</v>
       </c>
       <c r="W11" s="15"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
-        <v>128</v>
-      </c>
+      <c r="A12" s="52"/>
       <c r="B12" s="13">
         <v>7</v>
       </c>
@@ -7471,17 +7476,15 @@
         <v>0</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="16">
-        <v>6500</v>
-      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="16">
         <f t="shared" si="3"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J12" s="15"/>
       <c r="N12" s="19" t="s">
@@ -7514,7 +7517,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B13" s="13">
         <v>8</v>
@@ -7522,7 +7525,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14">
         <f>'NOVEMBER 21'!I13</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="16">
@@ -7530,12 +7533,14 @@
       </c>
       <c r="G13" s="16">
         <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>6000</v>
+      </c>
+      <c r="H13" s="16">
+        <v>6000</v>
+      </c>
       <c r="I13" s="17">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15"/>
       <c r="N13" s="51"/>
@@ -7605,16 +7610,18 @@
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="U14" s="16"/>
+      <c r="U14" s="16">
+        <v>5000</v>
+      </c>
       <c r="V14" s="17">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="B15" s="13">
         <v>10</v>
@@ -7686,10 +7693,12 @@
         <f>C16+E16+F16+D16</f>
         <v>6500</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="16">
+        <v>6500</v>
+      </c>
       <c r="I16" s="17">
         <f t="shared" si="0"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J16" s="15"/>
       <c r="N16" s="21" t="s">
@@ -7742,7 +7751,7 @@
         <v>6000</v>
       </c>
       <c r="I17" s="17">
-        <f>G17-H17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="15"/>
@@ -7775,851 +7784,967 @@
       <c r="W17" s="15"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="13">
+        <v>13</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14">
-        <f>'NOVEMBER 21'!I18</f>
-        <v>0</v>
-      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
+      <c r="F18" s="16">
+        <v>8000</v>
+      </c>
       <c r="G18" s="16">
-        <f>C18+E18+F18+D18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="16"/>
+        <f t="shared" ref="G18" si="4">C18+E18+F18+D18</f>
+        <v>8000</v>
+      </c>
+      <c r="H18" s="16">
+        <v>8000</v>
+      </c>
       <c r="I18" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="N18" s="24"/>
+      <c r="N18" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="O18" s="13">
         <v>13</v>
       </c>
       <c r="P18" s="14"/>
-      <c r="Q18" s="14">
-        <f>'NOVEMBER 21'!V18</f>
-        <v>0</v>
-      </c>
+      <c r="Q18" s="14"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
+      <c r="S18" s="16">
+        <v>6000</v>
+      </c>
       <c r="T18" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="W18" s="15"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="13">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16">
+        <v>6500</v>
+      </c>
+      <c r="G19" s="16">
+        <f>C19+E19+F19+D19</f>
+        <v>6500</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="15"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="13">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
+        <f>'NOVEMBER 21'!I18</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16">
+        <v>5500</v>
+      </c>
+      <c r="G20" s="16">
+        <f>C20+E20+F20+D20</f>
+        <v>5500</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="13">
+        <v>13</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14">
+        <f>'NOVEMBER 21'!V18</f>
+        <v>-150</v>
+      </c>
+      <c r="R20" s="15"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
         <f>'NOVEMBER 21'!I19</f>
         <v>4000</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16">
+      <c r="E21" s="15"/>
+      <c r="F21" s="16">
         <v>10000</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G21" s="16">
         <f t="shared" si="3"/>
         <v>14000</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H21" s="16">
         <v>10000</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I21" s="17">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14">
+      <c r="J21" s="15"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14">
         <f>'NOVEMBER 21'!V19</f>
         <v>0</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16">
+      <c r="R21" s="15"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="16"/>
-      <c r="V19" s="17">
+      <c r="U21" s="16"/>
+      <c r="V21" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="W21" s="15"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14">
         <f>'NOVEMBER 21'!I20</f>
         <v>11150</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16">
-        <f t="shared" si="3"/>
-        <v>11150</v>
-      </c>
-      <c r="H20" s="16">
-        <v>11150</v>
-      </c>
-      <c r="I20" s="17">
-        <f>G20-H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>850</v>
-      </c>
-      <c r="N20" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14">
-        <f>SUM(Q6:Q19)</f>
-        <v>11850</v>
-      </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16">
-        <f>SUM(S6:S19)</f>
-        <v>51000</v>
-      </c>
-      <c r="T20" s="16">
-        <f t="shared" si="1"/>
-        <v>62850</v>
-      </c>
-      <c r="U20" s="16">
-        <f>SUM(U6:U18)</f>
-        <v>16000</v>
-      </c>
-      <c r="V20" s="17">
-        <f>SUM(V6:V19)</f>
-        <v>46850</v>
-      </c>
-      <c r="W20" s="15"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14">
-        <f>'NOVEMBER 21'!I21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16">
-        <v>7000</v>
-      </c>
-      <c r="G21" s="16">
-        <f>C21+E21+F21+D21</f>
-        <v>7000</v>
-      </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17">
-        <f t="shared" si="0"/>
-        <v>7000</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="W21" s="15"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
-        <f>'NOVEMBER 21'!I22</f>
-        <v>0</v>
-      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="16">
+        <v>7000</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" si="3"/>
+        <v>18150</v>
+      </c>
+      <c r="H22" s="16">
+        <v>11150</v>
+      </c>
+      <c r="I22" s="17">
+        <f>G22-H22</f>
+        <v>7000</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="N22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14">
+        <f>SUM(Q6:Q21)</f>
+        <v>6850</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="16">
+        <f>SUM(S6:S21)</f>
+        <v>64000</v>
+      </c>
+      <c r="T22" s="16">
+        <f t="shared" si="1"/>
+        <v>70850</v>
+      </c>
+      <c r="U22" s="16">
+        <f>SUM(U6:U20)</f>
+        <v>38000</v>
+      </c>
+      <c r="V22" s="17">
+        <f>SUM(V6:V21)</f>
+        <v>33000</v>
+      </c>
+      <c r="W22" s="15"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
+        <f>'NOVEMBER 21'!I21</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16">
+        <v>7000</v>
+      </c>
+      <c r="G23" s="16">
+        <f>C23+E23+F23+D23</f>
+        <v>7000</v>
+      </c>
+      <c r="H23" s="16">
+        <v>7000</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14">
+        <f>'NOVEMBER 21'!I22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16">
         <v>8000</v>
       </c>
-      <c r="G22" s="16">
-        <f>C22+E22+F22+D22</f>
+      <c r="G24" s="16">
+        <f>C24+E24+F24+D24</f>
         <v>8000</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17">
+      <c r="H24" s="16">
+        <v>8000</v>
+      </c>
+      <c r="I24" s="17">
         <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="N22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="N24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="14">
-        <f t="shared" ref="C23:J23" si="4">SUM(C6:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="14">
-        <f>SUM(D6:D22)</f>
-        <v>31000</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <f t="shared" si="4"/>
-        <v>103000</v>
-      </c>
-      <c r="G23" s="16">
-        <f t="shared" si="4"/>
-        <v>134000</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="4"/>
-        <v>30150</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" si="4"/>
-        <v>103850</v>
-      </c>
-      <c r="J23" s="15">
-        <f t="shared" si="4"/>
-        <v>850</v>
-      </c>
-      <c r="N23" s="35" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="14">
+        <f t="shared" ref="C25:J25" si="5">SUM(C6:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f>SUM(D6:D24)</f>
+        <v>25000</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <f t="shared" si="5"/>
+        <v>123500</v>
+      </c>
+      <c r="G25" s="16">
+        <f t="shared" si="5"/>
+        <v>148500</v>
+      </c>
+      <c r="H25" s="16">
+        <f t="shared" si="5"/>
+        <v>88650</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="5"/>
+        <v>59850</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="35" t="s">
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E24" s="15"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="3"/>
-      <c r="N24" s="37" t="s">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E26" s="15"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="3"/>
+      <c r="N26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="O26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="P24" s="37" t="s">
+      <c r="P26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37" t="s">
+      <c r="Q26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="S24" s="37" t="s">
+      <c r="R26" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="37" t="s">
+      <c r="S26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U24" s="37" t="s">
+      <c r="T26" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V24" s="37" t="s">
+      <c r="U26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I25" s="28"/>
-      <c r="N25" s="26" t="s">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I27" s="28"/>
+      <c r="N27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="O25" s="38">
-        <f>S20</f>
-        <v>51000</v>
-      </c>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26" t="s">
+      <c r="O27" s="38">
+        <f>S22</f>
+        <v>64000</v>
+      </c>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="T25" s="38">
-        <f>U20</f>
-        <v>16000</v>
-      </c>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="S27" s="38">
+        <f>U22</f>
+        <v>38000</v>
+      </c>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="3"/>
-      <c r="N26" s="26" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34"/>
+      <c r="J28" s="3"/>
+      <c r="N28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="38">
-        <f>'NOVEMBER 21'!R37</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26" t="s">
+      <c r="O28" s="38">
+        <f>S28</f>
+        <v>3150</v>
+      </c>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="T26" s="38">
+      <c r="S28" s="38">
         <f>'NOVEMBER 21'!V37</f>
         <v>3150</v>
       </c>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="N27" s="26" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="N29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O27" s="38"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="O29" s="38"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
+      <c r="D30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="E30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="F30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="G30" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="H30" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="N28" s="26" t="s">
+      <c r="J30" s="3"/>
+      <c r="N30" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="38">
-        <f>F23</f>
-        <v>103000</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="38">
-        <f>H23</f>
-        <v>30150</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="34"/>
-      <c r="N29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="P29" s="38">
-        <f>O29*O25</f>
-        <v>3570.0000000000005</v>
-      </c>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="T29" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="U29" s="38">
-        <f>T29*O25</f>
-        <v>3570.0000000000005</v>
-      </c>
-      <c r="V29" s="26"/>
-      <c r="W29" s="34"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="38">
-        <f>'NOVEMBER 21'!E41</f>
-        <v>-42388</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="38">
-        <f>'NOVEMBER 21'!I41</f>
-        <v>-87363</v>
-      </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="34"/>
-      <c r="N30" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="O30" s="38"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
-      <c r="S30" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="40"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="26"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="34"/>
+      <c r="W30" s="3"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="38">
+        <f>F25</f>
+        <v>123500</v>
+      </c>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="38"/>
+      <c r="E31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="38">
+        <f>H25</f>
+        <v>88650</v>
+      </c>
+      <c r="G31" s="26"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
       <c r="J31" s="34"/>
-      <c r="N31" s="41" t="s">
-        <v>22</v>
+      <c r="N31" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="O31" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="T31" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="U31" s="42"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="34" t="s">
-        <v>18</v>
-      </c>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P31" s="38">
+        <f>O31*O27</f>
+        <v>4480</v>
+      </c>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S31" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T31" s="38">
+        <f>S31*O27</f>
+        <v>4480</v>
+      </c>
+      <c r="U31" s="26"/>
+      <c r="W31" s="34"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="38"/>
+        <v>17</v>
+      </c>
+      <c r="B32" s="38">
+        <f>'NOVEMBER 21'!E41</f>
+        <v>-42388</v>
+      </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="38"/>
+      <c r="E32" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="38">
+        <f>'NOVEMBER 21'!I41</f>
+        <v>-81363</v>
+      </c>
+      <c r="G32" s="26"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
       <c r="J32" s="34"/>
-      <c r="N32" s="40"/>
-      <c r="R32" s="42"/>
+      <c r="N32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="S32" s="40"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="3"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="W32" s="34"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C33" s="38">
-        <f>B33*B29</f>
-        <v>7210.0000000000009</v>
-      </c>
-      <c r="D33" s="38"/>
+        <v>9</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="26"/>
-      <c r="F33" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="39">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="H33" s="38">
-        <f>G33*B29</f>
-        <v>7210.0000000000009</v>
-      </c>
-      <c r="I33" s="26"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
       <c r="J33" s="34"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="26"/>
+      <c r="N33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="P33" s="42"/>
       <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="39"/>
+      <c r="R33" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="T33" s="42"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="34"/>
+      <c r="W33" s="34" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="A34" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="38"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
-      <c r="F34" s="37" t="s">
+      <c r="F34" s="38"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="J34" s="34"/>
+      <c r="N34" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34">
+        <v>58590</v>
+      </c>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="T34">
+        <v>58590</v>
+      </c>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C35" s="38">
+        <f>B35*B31</f>
+        <v>8645</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="39">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G35" s="38">
+        <f>F35*B31</f>
+        <v>8645</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="J35" s="34"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="W35" s="34"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="34"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="34"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="41" t="s">
+      <c r="B36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="J36" s="34"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="W36" s="34"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B37" s="39">
         <v>0.3</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="39">
-        <v>0.3</v>
-      </c>
-      <c r="H35" s="42"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="3"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="40"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="3"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="39"/>
       <c r="C37" s="42"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="34"/>
-      <c r="N37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="O37" s="45">
-        <f>O28+O25+O26+O27</f>
-        <v>51000</v>
-      </c>
-      <c r="P37" s="45">
-        <f>SUM(P29:P36)</f>
-        <v>3570.0000000000005</v>
-      </c>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="45">
-        <f>O37-P37</f>
-        <v>47430</v>
-      </c>
-      <c r="S37" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="T37" s="45">
-        <f>T25+T26+T28-U29</f>
-        <v>15580</v>
-      </c>
-      <c r="U37" s="45">
-        <f>SUM(U31:U36)</f>
-        <v>0</v>
-      </c>
-      <c r="V37" s="45">
-        <f>T37-U37</f>
-        <v>15580</v>
-      </c>
-      <c r="W37" s="34"/>
+      <c r="E37" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="39">
+        <v>0.3</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="26"/>
+      <c r="J37" s="3"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="26"/>
+      <c r="W37" s="3"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="39"/>
+      <c r="A38" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38">
+        <v>104855</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38">
+        <v>104855</v>
+      </c>
       <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="43"/>
-      <c r="N38" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="43"/>
+      <c r="J38" s="3"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="26"/>
+      <c r="W38" s="3"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="3"/>
-      <c r="N39" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="26"/>
+      <c r="J39" s="34"/>
+      <c r="N39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="45">
+        <f>O30+O27+O28+O29</f>
+        <v>67150</v>
+      </c>
+      <c r="P39" s="45">
+        <f>SUM(P31:P38)</f>
+        <v>63070</v>
+      </c>
+      <c r="Q39" s="45">
+        <f>O39-P39</f>
+        <v>4080</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="45">
+        <f>S27+S28+S30-T31</f>
+        <v>36670</v>
+      </c>
+      <c r="T39" s="45">
+        <f>SUM(T33:T38)</f>
+        <v>58590</v>
+      </c>
+      <c r="U39" s="45">
+        <f>S39-T39</f>
+        <v>-21920</v>
+      </c>
+      <c r="W39" s="34"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="40"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="26"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="3"/>
+      <c r="H40" s="26"/>
+      <c r="J40" s="43"/>
+      <c r="N40" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="W40" s="43"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="40"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="26"/>
+      <c r="J41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N41" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="26"/>
+      <c r="J42" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="45">
-        <f>B32+B29+B30+B31</f>
-        <v>60612</v>
-      </c>
-      <c r="C41" s="45">
-        <f>SUM(C33:C40)</f>
-        <v>7210.0000000000009</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45">
-        <f>B41-C41</f>
-        <v>53402</v>
-      </c>
-      <c r="F41" s="37" t="s">
+      <c r="B43" s="45">
+        <f>B34+B31+B32+B33</f>
+        <v>81112</v>
+      </c>
+      <c r="C43" s="45">
+        <f>SUM(C35:C42)</f>
+        <v>113500</v>
+      </c>
+      <c r="D43" s="45">
+        <f>B43-C43</f>
+        <v>-32388</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="45">
-        <f>G29+G30+G32-H33</f>
-        <v>-64423</v>
-      </c>
-      <c r="H41" s="45">
-        <f>SUM(H35:H40)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="45">
-        <f>G41-H41</f>
-        <v>-64423</v>
-      </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="44"/>
-      <c r="Q41" s="28">
-        <f>P35+P34+P33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="F43" s="45">
+        <f>F31+F32+F34-G35</f>
+        <v>-1358</v>
+      </c>
+      <c r="G43" s="45">
+        <f>SUM(G37:G42)</f>
+        <v>104855</v>
+      </c>
+      <c r="H43" s="45">
+        <f>F43-G43</f>
+        <v>-106213</v>
+      </c>
+      <c r="J43" s="43">
+        <v>5000</v>
+      </c>
+      <c r="K43" s="44"/>
+      <c r="Q43" s="28">
+        <f>P37+P36+P35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="47"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="43"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K43" s="44"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="43">
+        <v>30000</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <f>2*6500</f>
-        <v>13000</v>
-      </c>
-      <c r="R45" s="44">
-        <f>R37+92300</f>
-        <v>139730</v>
-      </c>
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="43">
+        <v>9000</v>
+      </c>
+      <c r="K45" s="44"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J46" s="43">
+        <v>9800</v>
+      </c>
+      <c r="L46">
+        <f>2100-1800</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J47" s="43">
+        <v>600</v>
+      </c>
+      <c r="R47" s="44"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <f>SUM(J41:J47)</f>
+        <v>56950</v>
+      </c>
+      <c r="K48" s="28"/>
+    </row>
+    <row r="49" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="I49" s="44"/>
+      <c r="K49" s="28"/>
+    </row>
+    <row r="50" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K50" s="28"/>
+    </row>
+    <row r="52" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="K52" s="28"/>
+    </row>
+    <row r="57" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="M57" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17391,10 +17516,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z48"/>
+  <dimension ref="A2:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V42" sqref="V42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19043,20 +19168,17 @@
       <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
       <c r="S43" s="44"/>
       <c r="Z43" s="44"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <f>C36+P32</f>
-        <v>101600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="G48">
-        <f>23846/2</f>
-        <v>11923</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19068,8 +19190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20732,16 +20854,19 @@
       <c r="W42" s="43"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
       <c r="S43" s="44"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="O44" s="28"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F45">
-        <f>C36+P32</f>
-        <v>43350</v>
-      </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G47">
